--- a/src/vlinder/data/template.xlsx
+++ b/src/vlinder/data/template.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tdijk004/Documents/tRBS/open source/trbs/model/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mverdaasdo001/Documents/RBS_open_source_test/trbs/model/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362A9D75-DB44-6D47-B828-97869F019473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC6FB85-C196-714E-821D-66E0DBD6BF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="540" windowWidth="27600" windowHeight="18800" activeTab="1" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20520" activeTab="10" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
   </bookViews>
   <sheets>
     <sheet name="configurations" sheetId="1" r:id="rId1"/>
-    <sheet name="key_outputs" sheetId="2" r:id="rId2"/>
-    <sheet name="decision_makers_options" sheetId="3" r:id="rId3"/>
-    <sheet name="scenarios" sheetId="4" r:id="rId4"/>
-    <sheet name="fixed_inputs" sheetId="5" r:id="rId5"/>
-    <sheet name="dependencies" sheetId="6" r:id="rId6"/>
-    <sheet name="theme_weights" sheetId="7" r:id="rId7"/>
-    <sheet name="key_output_weights" sheetId="8" r:id="rId8"/>
-    <sheet name="scenario_weights" sheetId="9" r:id="rId9"/>
+    <sheet name="case_text_elements" sheetId="10" r:id="rId2"/>
+    <sheet name="key_outputs" sheetId="2" r:id="rId3"/>
+    <sheet name="decision_makers_options" sheetId="3" r:id="rId4"/>
+    <sheet name="scenarios" sheetId="4" r:id="rId5"/>
+    <sheet name="fixed_inputs" sheetId="5" r:id="rId6"/>
+    <sheet name="dependencies" sheetId="6" r:id="rId7"/>
+    <sheet name="theme_weights" sheetId="7" r:id="rId8"/>
+    <sheet name="key_output_weights" sheetId="8" r:id="rId9"/>
+    <sheet name="scenario_weights" sheetId="9" r:id="rId10"/>
+    <sheet name="generic_text_elements" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
   <si>
     <t>configuration</t>
   </si>
@@ -119,13 +121,97 @@
   </si>
   <si>
     <t>weight</t>
+  </si>
+  <si>
+    <t>title_front_page</t>
+  </si>
+  <si>
+    <t>title_strategic_challenge</t>
+  </si>
+  <si>
+    <t>Strategic Challenge</t>
+  </si>
+  <si>
+    <t>title_key_outputs</t>
+  </si>
+  <si>
+    <t>Key outputs</t>
+  </si>
+  <si>
+    <t>title_dmo</t>
+  </si>
+  <si>
+    <t>Decision makers options (DMOs)</t>
+  </si>
+  <si>
+    <t>title_scenarios</t>
+  </si>
+  <si>
+    <t>Scenarios</t>
+  </si>
+  <si>
+    <t>title_dependency_graph</t>
+  </si>
+  <si>
+    <t>Dependency graph</t>
+  </si>
+  <si>
+    <t>title_weighted_graph</t>
+  </si>
+  <si>
+    <t>strategic_challenge</t>
+  </si>
+  <si>
+    <t>intro_key_outputs</t>
+  </si>
+  <si>
+    <t>The outputs upon which the decision makers will base their decision. Key outputs are often referred to as KPIs. Key outputs are grouped into themes.</t>
+  </si>
+  <si>
+    <t>intro_dmo</t>
+  </si>
+  <si>
+    <t>Decision makers options are formulated by assigning a single value to all internal variable inputs. These inputs can be formulated and determined by the decision makers.</t>
+  </si>
+  <si>
+    <t>intro_scenarios</t>
+  </si>
+  <si>
+    <t>Each external variable input can be thought of as a single aspect of external uncertainty affecting the outcome of the decision in scope. A scenario is defined by assigning a single value to all external variable inputs.</t>
+  </si>
+  <si>
+    <t>intro_dependency_graph</t>
+  </si>
+  <si>
+    <t>intro_weighted_graph</t>
+  </si>
+  <si>
+    <t>title_fixed_inputs</t>
+  </si>
+  <si>
+    <t>Fixed inputs</t>
+  </si>
+  <si>
+    <t>intro_fixed_inputs</t>
+  </si>
+  <si>
+    <t>The inputs which only takes one value for all scenarios.</t>
+  </si>
+  <si>
+    <t>case_text_element</t>
+  </si>
+  <si>
+    <t>generic_text_element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resulting appreciations of different DMOs for scenario: </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -138,6 +224,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -181,11 +274,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -503,7 +597,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -524,12 +618,199 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82690612-F6E7-CC4A-A524-5770D0407DD2}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37374E9-0B8C-5146-9963-143C6A1F6273}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="163.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6E7092-1A78-2943-AD65-F53D3C885E8E}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F27D205-AE79-E542-BA48-2D4707481E26}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -571,7 +852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DA06C9-587A-0249-BA81-B2630B23EDC5}">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -601,7 +882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9376F10E-70E0-5847-AA4E-1F18853CB3E7}">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -630,7 +911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED761DDB-51CF-394F-9D46-C056F7FA6C46}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -653,7 +934,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45498073-CC56-2D41-B5D6-3D03F1233978}">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -703,7 +984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E05F8AE-8DA8-724A-AD7F-0A10B8E741F3}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -726,7 +1007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E33D2E0-445B-874F-A88A-006EF8EA7B4B}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -747,27 +1028,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82690612-F6E7-CC4A-A524-5770D0407DD2}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/vlinder/data/template.xlsx
+++ b/src/vlinder/data/template.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tdijk004/Documents/tRBS/open source/trbs/model/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ttami001/Documents/forked_tbrs_opensource/trbs/src/vlinder/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362A9D75-DB44-6D47-B828-97869F019473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9F13DF-81A0-2A4B-8601-4FA346DE506B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="540" windowWidth="27600" windowHeight="18800" activeTab="1" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
+    <workbookView xWindow="3520" yWindow="760" windowWidth="27600" windowHeight="18800" activeTab="1" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
   </bookViews>
   <sheets>
     <sheet name="configurations" sheetId="1" r:id="rId1"/>
-    <sheet name="key_outputs" sheetId="2" r:id="rId2"/>
-    <sheet name="decision_makers_options" sheetId="3" r:id="rId3"/>
-    <sheet name="scenarios" sheetId="4" r:id="rId4"/>
-    <sheet name="fixed_inputs" sheetId="5" r:id="rId5"/>
-    <sheet name="dependencies" sheetId="6" r:id="rId6"/>
-    <sheet name="theme_weights" sheetId="7" r:id="rId7"/>
-    <sheet name="key_output_weights" sheetId="8" r:id="rId8"/>
-    <sheet name="scenario_weights" sheetId="9" r:id="rId9"/>
+    <sheet name="generic_text_elements" sheetId="10" r:id="rId2"/>
+    <sheet name="case_text_elements" sheetId="11" r:id="rId3"/>
+    <sheet name="key_outputs" sheetId="2" r:id="rId4"/>
+    <sheet name="decision_makers_options" sheetId="3" r:id="rId5"/>
+    <sheet name="scenarios" sheetId="4" r:id="rId6"/>
+    <sheet name="fixed_inputs" sheetId="5" r:id="rId7"/>
+    <sheet name="dependencies" sheetId="6" r:id="rId8"/>
+    <sheet name="theme_weights" sheetId="7" r:id="rId9"/>
+    <sheet name="key_output_weights" sheetId="8" r:id="rId10"/>
+    <sheet name="scenario_weights" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>configuration</t>
   </si>
@@ -119,13 +121,19 @@
   </si>
   <si>
     <t>weight</t>
+  </si>
+  <si>
+    <t>case_text_element</t>
+  </si>
+  <si>
+    <t>generic_text_element</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -138,6 +146,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -178,17 +193,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{4CE69C8D-69A7-EA48-9BD9-7206450275FB}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -204,9 +224,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -244,7 +264,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -350,7 +370,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -492,7 +512,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -524,11 +544,111 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E33D2E0-445B-874F-A88A-006EF8EA7B4B}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82690612-F6E7-CC4A-A524-5770D0407DD2}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C5B01A-C652-9640-91B4-C5BE3F1985FA}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD99EC7-01CE-0849-837F-A59538A72E7E}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F27D205-AE79-E542-BA48-2D4707481E26}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -571,7 +691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1DA06C9-587A-0249-BA81-B2630B23EDC5}">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -601,7 +721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9376F10E-70E0-5847-AA4E-1F18853CB3E7}">
   <dimension ref="A1:C1"/>
   <sheetViews>
@@ -630,7 +750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED761DDB-51CF-394F-9D46-C056F7FA6C46}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -653,7 +773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45498073-CC56-2D41-B5D6-3D03F1233978}">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -703,7 +823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E05F8AE-8DA8-724A-AD7F-0A10B8E741F3}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -724,50 +844,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E33D2E0-445B-874F-A88A-006EF8EA7B4B}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82690612-F6E7-CC4A-A524-5770D0407DD2}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/vlinder/data/template.xlsx
+++ b/src/vlinder/data/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rdam007/PycharmProjects/vork-trbs/trbs/src/vlinder/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tdijk004/Documents/Tooling/vlinder/trbs/src/vlinder/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4391DC73-C70D-904E-8950-0B556BB7AB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1A9542-54A9-2149-ADC2-1B250496C092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3640" yWindow="1120" windowWidth="27600" windowHeight="18800" activeTab="7" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
+    <workbookView xWindow="3640" yWindow="1120" windowWidth="27600" windowHeight="18800" activeTab="3" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
   </bookViews>
   <sheets>
     <sheet name="configurations" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>configuration</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>end</t>
-  </si>
-  <si>
-    <t>threshold</t>
   </si>
   <si>
     <t>internal_variable_input</t>
@@ -547,7 +544,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -567,10 +564,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -594,7 +591,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -621,7 +618,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -634,10 +631,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F27D205-AE79-E542-BA48-2D4707481E26}">
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -645,7 +642,7 @@
     <col min="4" max="4" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -669,9 +666,6 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -695,10 +689,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -724,10 +718,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -750,7 +744,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -765,7 +759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45498073-CC56-2D41-B5D6-3D03F1233978}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -782,16 +776,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -814,7 +808,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/vlinder/data/template.xlsx
+++ b/src/vlinder/data/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ttami001/Documents/forked_tbrs_opensource/trbs/src/vlinder/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tdijk004/Documents/Tooling/vlinder/trbs/src/vlinder/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9F13DF-81A0-2A4B-8601-4FA346DE506B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1A9542-54A9-2149-ADC2-1B250496C092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="760" windowWidth="27600" windowHeight="18800" activeTab="1" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
+    <workbookView xWindow="3640" yWindow="1120" windowWidth="27600" windowHeight="18800" activeTab="3" xr2:uid="{4D223BC5-A265-7B41-9F5C-066E948A074C}"/>
   </bookViews>
   <sheets>
     <sheet name="configurations" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>configuration</t>
   </si>
@@ -78,9 +78,6 @@
     <t>end</t>
   </si>
   <si>
-    <t>threshold</t>
-  </si>
-  <si>
     <t>internal_variable_input</t>
   </si>
   <si>
@@ -106,18 +103,6 @@
   </si>
   <si>
     <t>operator</t>
-  </si>
-  <si>
-    <t>maximum_effect</t>
-  </si>
-  <si>
-    <t>accessibility</t>
-  </si>
-  <si>
-    <t>probability_of_success</t>
-  </si>
-  <si>
-    <t>saturation_point</t>
   </si>
   <si>
     <t>weight</t>
@@ -559,7 +544,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -579,10 +564,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -594,7 +579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96C5B01A-C652-9640-91B4-C5BE3F1985FA}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
@@ -606,7 +591,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -633,7 +618,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -646,10 +631,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F27D205-AE79-E542-BA48-2D4707481E26}">
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -657,7 +642,7 @@
     <col min="4" max="4" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -681,9 +666,6 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -707,10 +689,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -736,10 +718,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -762,7 +744,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -775,10 +757,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45498073-CC56-2D41-B5D6-3D03F1233978}">
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -792,30 +774,18 @@
     <col min="8" max="8" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -838,7 +808,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
